--- a/code/xddesign/src/main/resources/xlsx/template.xlsx
+++ b/code/xddesign/src/main/resources/xlsx/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\xddesign\code\xddesign\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0596044-F23E-4336-BD21-A109DD8E98B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2904060-4477-486A-A4B7-A6FC6EC72C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="3360" windowWidth="21600" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="1995" windowWidth="21600" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方案报价表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>智能家居方案报价单</t>
   </si>
@@ -64,9 +64,6 @@
     <t>合计/元</t>
   </si>
   <si>
-    <t>价格总计</t>
-  </si>
-  <si>
     <t>日期：{date}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -124,6 +121,26 @@
   </si>
   <si>
     <t>{descr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品总价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{workPriceName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{workPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{total2}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -184,8 +201,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +333,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,22 +345,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,22 +660,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
@@ -644,96 +683,96 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -756,83 +795,115 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
+      <c r="A8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
+  <mergeCells count="15">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>

--- a/code/xddesign/src/main/resources/xlsx/template.xlsx
+++ b/code/xddesign/src/main/resources/xlsx/template.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\xddesign\code\xddesign\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2904060-4477-486A-A4B7-A6FC6EC72C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602C02B1-AFE8-4DBB-9F2B-728CD74BDE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1995" windowWidth="21600" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1995" windowWidth="25260" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方案报价表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>智能家居方案报价单</t>
   </si>
@@ -308,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +337,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,26 +370,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,7 +651,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,22 +664,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
@@ -683,27 +687,27 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="16"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -724,9 +728,9 @@
       <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="16"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
@@ -747,9 +751,9 @@
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
@@ -770,9 +774,9 @@
       <c r="F5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -795,7 +799,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -816,32 +820,32 @@
       <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="8"/>
@@ -849,13 +853,13 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="5" t="s">
         <v>33</v>
       </c>
@@ -869,31 +873,36 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="J2:J8"/>
@@ -904,14 +913,33 @@
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C55DF1-C989-4318-A4F3-36113117AFAA}">
+  <dimension ref="F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code/xddesign/src/main/resources/xlsx/template.xlsx
+++ b/code/xddesign/src/main/resources/xlsx/template.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\xddesign\code\xddesign\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602C02B1-AFE8-4DBB-9F2B-728CD74BDE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0453D1CC-7617-4265-B2C4-68CB11790CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1995" windowWidth="25260" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方案报价表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>智能家居方案报价单</t>
   </si>
@@ -142,6 +141,14 @@
   </si>
   <si>
     <t>{total2}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型：{typeName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：{address}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -340,6 +347,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -349,29 +374,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,22 +671,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
@@ -687,259 +694,252 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="9" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="9" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="J2:J8"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C55DF1-C989-4318-A4F3-36113117AFAA}">
-  <dimension ref="F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F7" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/code/xddesign/src/main/resources/xlsx/template.xlsx
+++ b/code/xddesign/src/main/resources/xlsx/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\xddesign\code\xddesign\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0453D1CC-7617-4265-B2C4-68CB11790CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D29F5-DCA2-49DC-A57E-01FDBDE091F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +370,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -658,7 +664,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,9 +718,9 @@
       <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
@@ -727,9 +733,9 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
@@ -750,9 +756,9 @@
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
@@ -773,9 +779,9 @@
       <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="18"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
@@ -796,9 +802,9 @@
       <c r="F6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -821,7 +827,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="18"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -842,31 +848,31 @@
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
@@ -875,13 +881,13 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
@@ -907,15 +913,15 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
